--- a/data/target_metadata/SMC_AR_data_tracking.xlsx
+++ b/data/target_metadata/SMC_AR_data_tracking.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duval/Documents/ULLYSES/DR3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duval/Documents/ULLYSES/DR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63310C2A-4025-0E40-BEB1-53E9100725DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCEC9D2-2541-3545-9B4C-866DF613A432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="3320" windowWidth="25840" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1140" windowWidth="33420" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMC_AR_data_tracking" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="206">
   <si>
     <t>Target</t>
   </si>
@@ -508,30 +517,18 @@
     <t>15837 done, ULL not scheduled</t>
   </si>
   <si>
-    <t>SK-9, LIN-78; 15629 done, waiting for ULLYSES COS</t>
-  </si>
-  <si>
     <t>15629 done, but redoing with COS</t>
   </si>
   <si>
-    <t>SK-32, 15629 done, but waiting on 3 more orbits from ULL</t>
-  </si>
-  <si>
     <t>11625 done; currently scheduled August</t>
   </si>
   <si>
-    <t>SK-148;  15837 done; wiating for more ULL orbits</t>
-  </si>
-  <si>
     <t>SK-35, 15837 done; ULL done</t>
   </si>
   <si>
     <t>AZV-468, 11625 done; currently scheduled for August</t>
   </si>
   <si>
-    <t>LIN-160, 15629 done but redoing with COS</t>
-  </si>
-  <si>
     <t>CL-NGC346-SSN-7; from 15629, which failed</t>
   </si>
   <si>
@@ -622,9 +619,6 @@
     <t>had been forgotten since DR1</t>
   </si>
   <si>
-    <t>mixAR. COS done (11625) Waiting for E230M</t>
-  </si>
-  <si>
     <t>15629 did STIS but too faint</t>
   </si>
   <si>
@@ -632,6 +626,27 @@
   </si>
   <si>
     <t>E140M done in 15837. Waiting for more STIS orbits + 1096</t>
+  </si>
+  <si>
+    <t>SK-9, LIN-78; 15629 done, waiting for ULLYSES COS/decided not to repeat</t>
+  </si>
+  <si>
+    <t>15629 done, but redoing with COS/decided not to repeat</t>
+  </si>
+  <si>
+    <t>SK-32, 15629 done, but waiting on 3 more orbits from ULL. Decided not to reobserve</t>
+  </si>
+  <si>
+    <t>LIN-160, 15629 done but redoing with COS. Decided not to reobserve</t>
+  </si>
+  <si>
+    <t>SK-148;  15837 done; wiating for more ULL orbits. Not reobserving</t>
+  </si>
+  <si>
+    <t>mixAR. COS done (11625) ULL STIS done</t>
+  </si>
+  <si>
+    <t>Only include exposures contemporaneous to FUSE</t>
   </si>
 </sst>
 </file>
@@ -1122,9 +1137,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1511,23 +1527,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="7" max="7" width="54.83203125" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1591,12 +1607,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1617,41 +1633,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1672,7 +1692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1695,7 +1715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1718,7 +1738,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1770,7 +1790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1790,12 +1810,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1810,7 +1830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1830,7 +1850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1862,35 +1882,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1905,7 +1931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2259,7 +2285,7 @@
         <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2291,7 +2317,7 @@
         <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2347,7 +2373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2364,7 +2390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2381,36 +2407,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2433,7 +2463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2456,7 +2486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2482,7 +2512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2490,7 +2520,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2514,7 +2544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -2546,7 +2576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2566,7 +2596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2586,7 +2616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -2594,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2618,7 +2648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2644,7 +2674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2670,7 +2700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2693,7 +2723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2719,7 +2749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -2848,7 +2878,7 @@
         <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3591,7 +3621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3611,30 +3641,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C86" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
         <v>8</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>8</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -3685,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3867,7 +3900,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -3884,7 +3917,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -3904,7 +3937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -3927,7 +3960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -3944,7 +3977,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -3961,65 +3994,73 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C102" t="s">
-        <v>163</v>
-      </c>
-      <c r="D102">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" s="2">
         <v>2</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
         <v>2</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C103" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -4039,13 +4080,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>154</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
+      <c r="C105" t="s">
+        <v>205</v>
+      </c>
       <c r="D105">
         <v>0</v>
       </c>
@@ -4065,7 +4109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -4085,7 +4129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -4105,9 +4149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -4122,12 +4166,12 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -4145,9 +4189,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -4165,9 +4209,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -4185,9 +4229,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -4207,7 +4251,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -4222,12 +4266,12 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -4247,7 +4291,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -4267,7 +4311,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -4287,7 +4331,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -4307,7 +4351,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -4327,7 +4371,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -4347,7 +4391,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -4367,7 +4411,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -4387,7 +4431,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -4402,12 +4446,12 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -4422,12 +4466,12 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -4447,7 +4491,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -4462,12 +4506,12 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -4487,7 +4531,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -4507,7 +4551,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -4527,7 +4571,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -4547,7 +4591,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B130">
         <v>3</v>
